--- a/2020_09_12_10_46_49/01_prediction_results.xlsx
+++ b/2020_09_12_10_46_49/01_prediction_results.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavan\Valkyrie\Option Strategies\Option-Strategies\2020_09_12_10_46_49\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30E0F80-82D6-473F-9E02-4A2146A5648B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D501B9-6A7F-4687-AC2E-3C47D2CAB7AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -389,6 +399,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,13 +468,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -813,7 +827,7 @@
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
@@ -2013,7 +2027,7 @@
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>-1.051655340017899E-2</v>
       </c>
       <c r="C42" s="2">
@@ -2022,7 +2036,7 @@
       <c r="D42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="4">
         <v>-1.9612847278165368E-2</v>
       </c>
       <c r="F42" s="2">
